--- a/Code/GenFootage/Output/ecuCanFrame.xlsx
+++ b/Code/GenFootage/Output/ecuCanFrame.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\GenFootage\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96C1EE7-7803-4D11-A989-7D8F5A96E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7183988-48E7-45C7-B04B-C85811F719B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" activeTab="2" xr2:uid="{21A5A76E-045C-4D60-A183-6F4CE9E005EB}"/>
+    <workbookView xWindow="43500" yWindow="150" windowWidth="33300" windowHeight="12105" activeTab="1" xr2:uid="{21A5A76E-045C-4D60-A183-6F4CE9E005EB}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>No.</t>
   </si>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>CanTx_inf_aps_pos_eff</t>
+  </si>
+  <si>
+    <t>(always FALSE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -217,9 +221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,15 +521,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -553,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -577,21 +581,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDAA341-3B69-4084-B272-4688ACEB9A29}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -633,17 +639,17 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+      <c r="F2" s="2">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2">
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -669,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -686,7 +692,7 @@
         <v>-848</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
@@ -695,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -721,7 +727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -747,7 +753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -783,21 +789,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEE4947-C991-4BA2-9B3B-80145B63E770}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -849,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -875,7 +881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -901,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -927,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -953,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>

--- a/Code/GenFootage/Output/ecuCanFrame.xlsx
+++ b/Code/GenFootage/Output/ecuCanFrame.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\GenFootage\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7183988-48E7-45C7-B04B-C85811F719B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E6CDB7-235F-466B-8219-AA4F9230749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43500" yWindow="150" windowWidth="33300" windowHeight="12105" activeTab="1" xr2:uid="{21A5A76E-045C-4D60-A183-6F4CE9E005EB}"/>
+    <workbookView xWindow="3803" yWindow="3495" windowWidth="16139" windowHeight="9285" activeTab="4" xr2:uid="{F9FF8508-CA8F-49AA-8651-9DA3BB278023}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
     <sheet name="191" sheetId="3" r:id="rId2"/>
     <sheet name="193" sheetId="4" r:id="rId3"/>
+    <sheet name="RxNormal" sheetId="5" r:id="rId4"/>
+    <sheet name="1BF" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>No.</t>
   </si>
@@ -110,14 +112,73 @@
     <t>inf_aps_pos_eff</t>
   </si>
   <si>
-    <t>100/255</t>
-  </si>
-  <si>
     <t>CanTx_inf_aps_pos_eff</t>
   </si>
   <si>
-    <t>(always FALSE)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1BF</t>
+  </si>
+  <si>
+    <t>RxNormal</t>
+  </si>
+  <si>
+    <t>Turbo Control</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Start Bit</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_duty</t>
+  </si>
+  <si>
+    <t>inv_device_vnt</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_DUTY</t>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_trb_duty</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_power_off_enb_stat</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_POWER_OFF_ENB_STAT</t>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_trb_power_off_enb_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_ctrl_enb_stat</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_CTRL_ENB_STAT</t>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_trb_ctrl_enb_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_vnt_act_pos</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_VNT_ACT_POS</t>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_vnt_act_pos</t>
+  </si>
+  <si>
+    <t>can_gmaln_rx_trb_err_msg</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_ERR_MSG</t>
+  </si>
+  <si>
+    <t>CanRx_can_gmaln_rx_trb_err_msg</t>
   </si>
 </sst>
 </file>
@@ -221,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -367,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,27 +570,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2A6896-A28F-476E-AA78-BE930144D80B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787BCAD-C375-41CC-82ED-CFFC7D905393}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -557,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -578,26 +639,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDAA341-3B69-4084-B272-4688ACEB9A29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A870D4-AECB-4FBE-AFBE-105B17C3CCDD}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -623,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -639,17 +698,17 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>111</v>
-      </c>
-      <c r="G2" s="2">
-        <v>22</v>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -675,7 +734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -692,7 +751,7 @@
         <v>-848</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
@@ -701,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -727,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -753,12 +812,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
+      <c r="B7" s="2">
+        <v>0.39215686274509798</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -776,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -786,24 +845,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEE4947-C991-4BA2-9B3B-80145B63E770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E11E75-2967-45C8-94BA-572191F474A8}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -855,7 +914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -881,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -907,7 +966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -933,7 +992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -959,12 +1018,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
+      <c r="B7" s="2">
+        <v>0.39215686274509798</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -982,7 +1041,273 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B09D48-396F-42FA-9436-10E6BC34A6B6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A4636-03FD-4866-990A-17491D5EC2F4}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="33.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>65535</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Code/GenFootage/Output/ecuCanFrame.xlsx
+++ b/Code/GenFootage/Output/ecuCanFrame.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\GenFootage\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E6CDB7-235F-466B-8219-AA4F9230749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C9213E-DC02-4413-A65E-F8D1412DF44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3803" yWindow="3495" windowWidth="16139" windowHeight="9285" activeTab="4" xr2:uid="{F9FF8508-CA8F-49AA-8651-9DA3BB278023}"/>
+    <workbookView xWindow="35355" yWindow="3000" windowWidth="33300" windowHeight="12105" activeTab="4" xr2:uid="{13690013-3849-4A90-9F8E-AB4CA8762E21}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,21 @@
     <sheet name="RxNormal" sheetId="5" r:id="rId4"/>
     <sheet name="1BF" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -292,39 +303,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -376,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -487,13 +498,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -502,6 +506,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -566,31 +577,51 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787BCAD-C375-41CC-82ED-CFFC7D905393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50260D3-3437-417A-AB7D-9F453DF6170E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -618,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -639,24 +670,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A870D4-AECB-4FBE-AFBE-105B17C3CCDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADDA4C3-6895-4FE4-A1DD-18B3AA4AF359}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -682,7 +713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -708,7 +739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -734,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -760,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -786,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -812,7 +843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -845,24 +876,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E11E75-2967-45C8-94BA-572191F474A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57259CF-BD3F-48E8-AA1C-4E3E4866B44E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -914,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -940,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -966,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -992,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1018,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1051,20 +1082,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B09D48-396F-42FA-9436-10E6BC34A6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D756F1-E299-4D5A-B514-37EC09595FDB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1099,26 +1130,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A4636-03FD-4866-990A-17491D5EC2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF408BCD-89E3-41E1-9EF3-A41314D66AEE}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1182,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1214,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -1246,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1275,10 +1306,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>

--- a/Code/GenFootage/Output/ecuCanFrame.xlsx
+++ b/Code/GenFootage/Output/ecuCanFrame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C9213E-DC02-4413-A65E-F8D1412DF44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E89A0-3CC6-4586-BB2F-89A57F850E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35355" yWindow="3000" windowWidth="33300" windowHeight="12105" activeTab="4" xr2:uid="{13690013-3849-4A90-9F8E-AB4CA8762E21}"/>
+    <workbookView xWindow="41400" yWindow="7365" windowWidth="33300" windowHeight="12105" activeTab="4" xr2:uid="{13690013-3849-4A90-9F8E-AB4CA8762E21}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
@@ -1133,7 +1133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF408BCD-89E3-41E1-9EF3-A41314D66AEE}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1189,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>

--- a/Code/GenFootage/Output/ecuCanFrame.xlsx
+++ b/Code/GenFootage/Output/ecuCanFrame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E89A0-3CC6-4586-BB2F-89A57F850E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69833D37-9EB7-441A-B245-EB689B90AE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="7365" windowWidth="33300" windowHeight="12105" activeTab="4" xr2:uid="{13690013-3849-4A90-9F8E-AB4CA8762E21}"/>
+    <workbookView xWindow="42180" yWindow="915" windowWidth="33300" windowHeight="12105" activeTab="4" xr2:uid="{7CBE6DC8-1607-42E3-84C7-66EA584362DF}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Error Indicator Value</t>
   </si>
   <si>
-    <t>Output</t>
+    <t>Output Can Frame</t>
   </si>
   <si>
     <t>inf_eng_tra_rdctn_fail_stat</t>
@@ -93,37 +93,37 @@
     <t>-</t>
   </si>
   <si>
-    <t>CanTx_inf_eng_tra_rdctn_fail_stat</t>
+    <t>can_tx_inf_eng_tra_rdctn_fail_stat</t>
   </si>
   <si>
     <t>inf_eng_trq_tcm_rqst_fail_stat</t>
   </si>
   <si>
-    <t>CanTx_inf_eng_trq_tcm_rqst_fail_stat</t>
+    <t>can_tx_inf_eng_trq_tcm_rqst_fail_stat</t>
   </si>
   <si>
     <t>inf_trq_crnk_shft</t>
   </si>
   <si>
-    <t>CanTx_inf_trq_crnk_shft</t>
+    <t>can_tx_inf_trq_crnk_shft</t>
   </si>
   <si>
     <t>inf_aps_pos_pt_validity</t>
   </si>
   <si>
-    <t>CanTx_inf_aps_pos_pt_validity</t>
+    <t>can_tx_inf_aps_pos_pt_validity</t>
   </si>
   <si>
     <t>inf_tra_non_reg</t>
   </si>
   <si>
-    <t>CanTx_inf_tra_non_reg</t>
+    <t>can_tx_inf_tra_non_reg</t>
   </si>
   <si>
     <t>inf_aps_pos_eff</t>
   </si>
   <si>
-    <t>CanTx_inf_aps_pos_eff</t>
+    <t>can_tx_inf_aps_pos_eff</t>
   </si>
   <si>
     <t>1BF</t>
@@ -135,7 +135,7 @@
     <t>Turbo Control</t>
   </si>
   <si>
-    <t>Input</t>
+    <t>Input Can Frame</t>
   </si>
   <si>
     <t>Start Bit</t>
@@ -153,7 +153,7 @@
     <t>K_CAN_GMLAN_RX_DEFAULT_TRB_DUTY</t>
   </si>
   <si>
-    <t>CanRx_can_gmlan_rx_trb_duty</t>
+    <t>trb_duty</t>
   </si>
   <si>
     <t>can_gmlan_rx_trb_power_off_enb_stat</t>
@@ -162,7 +162,7 @@
     <t>K_CAN_GMLAN_RX_DEFAULT_TRB_POWER_OFF_ENB_STAT</t>
   </si>
   <si>
-    <t>CanRx_can_gmlan_rx_trb_power_off_enb_stat</t>
+    <t>trb_power_off_enb_stat</t>
   </si>
   <si>
     <t>can_gmlan_rx_trb_ctrl_enb_stat</t>
@@ -171,7 +171,7 @@
     <t>K_CAN_GMLAN_RX_DEFAULT_TRB_CTRL_ENB_STAT</t>
   </si>
   <si>
-    <t>CanRx_can_gmlan_rx_trb_ctrl_enb_stat</t>
+    <t>trb_ctrl_enb_stat</t>
   </si>
   <si>
     <t>can_gmlan_rx_vnt_act_pos</t>
@@ -180,16 +180,16 @@
     <t>K_CAN_GMLAN_RX_DEFAULT_VNT_ACT_POS</t>
   </si>
   <si>
-    <t>CanRx_can_gmlan_rx_vnt_act_pos</t>
-  </si>
-  <si>
-    <t>can_gmaln_rx_trb_err_msg</t>
+    <t>vnt_act_pos</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_err_msg</t>
   </si>
   <si>
     <t>K_CAN_GMLAN_RX_DEFAULT_TRB_ERR_MSG</t>
   </si>
   <si>
-    <t>CanRx_can_gmaln_rx_trb_err_msg</t>
+    <t>trb_err_msg</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50260D3-3437-417A-AB7D-9F453DF6170E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968C358-C5A5-4592-98E4-DEAE3F2D9754}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -670,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADDA4C3-6895-4FE4-A1DD-18B3AA4AF359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19536D2-8573-4A57-A782-8A50E4D14BF4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -684,7 +684,7 @@
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57259CF-BD3F-48E8-AA1C-4E3E4866B44E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA03E2-7D37-4385-B0B7-0AFECB76454A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -890,7 +890,7 @@
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D756F1-E299-4D5A-B514-37EC09595FDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F33C2-0B16-4ADD-AFAD-03221331485A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1130,12 +1130,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF408BCD-89E3-41E1-9EF3-A41314D66AEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05F31D-EC3C-455A-9B6B-FB259DB9A2D2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1146,7 +1144,7 @@
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1191,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>

--- a/Code/GenFootage/Output/ecuCanFrame.xlsx
+++ b/Code/GenFootage/Output/ecuCanFrame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69833D37-9EB7-441A-B245-EB689B90AE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1258FDCC-2AAE-481D-9C94-AE11496E5D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42180" yWindow="915" windowWidth="33300" windowHeight="12105" activeTab="4" xr2:uid="{7CBE6DC8-1607-42E3-84C7-66EA584362DF}"/>
+    <workbookView xWindow="5205" yWindow="8775" windowWidth="33300" windowHeight="12105" activeTab="4" xr2:uid="{335FD51F-5026-4378-B4ED-ABB88E7164E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>No.</t>
   </si>
@@ -63,6 +63,15 @@
     <t>Signal</t>
   </si>
   <si>
+    <t>Invalid Status</t>
+  </si>
+  <si>
+    <t>Error Indicator Value</t>
+  </si>
+  <si>
+    <t>Output Can Frame</t>
+  </si>
+  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -75,13 +84,10 @@
     <t>Min</t>
   </si>
   <si>
-    <t>Invalid Status</t>
-  </si>
-  <si>
-    <t>Error Indicator Value</t>
-  </si>
-  <si>
-    <t>Output Can Frame</t>
+    <t>Start Bit</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
   <si>
     <t>inf_eng_tra_rdctn_fail_stat</t>
@@ -126,6 +132,9 @@
     <t>can_tx_inf_aps_pos_eff</t>
   </si>
   <si>
+    <t>100/255</t>
+  </si>
+  <si>
     <t>1BF</t>
   </si>
   <si>
@@ -136,12 +145,6 @@
   </si>
   <si>
     <t>Input Can Frame</t>
-  </si>
-  <si>
-    <t>Start Bit</t>
-  </si>
-  <si>
-    <t>Length</t>
   </si>
   <si>
     <t>can_gmlan_rx_trb_duty</t>
@@ -608,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968C358-C5A5-4592-98E4-DEAE3F2D9754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391014C7-7563-465B-9F94-E0F141B3B3AD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -670,24 +673,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19536D2-8573-4A57-A782-8A50E4D14BF4}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD730C68-C157-4F07-8AAE-6D4EE715B683}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -712,161 +717,203 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4" s="2">
         <v>-848</v>
       </c>
-      <c r="D4" s="2">
+      <c r="G4" s="2">
         <v>1199.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="H4" s="2">
         <v>-848</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6" s="2">
         <v>-848</v>
       </c>
-      <c r="D6" s="2">
+      <c r="G6" s="2">
         <v>1199.5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="H6" s="2">
         <v>-848</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.39215686274509798</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -876,24 +923,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA03E2-7D37-4385-B0B7-0AFECB76454A}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5B6BD-78D9-489D-B6E3-0B6D7D8B2315}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,161 +967,203 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4" s="2">
         <v>-848</v>
       </c>
-      <c r="D4" s="2">
+      <c r="G4" s="2">
         <v>1199.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="H4" s="2">
         <v>-848</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6" s="2">
         <v>-848</v>
       </c>
-      <c r="D6" s="2">
+      <c r="G6" s="2">
         <v>1199.5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="H6" s="2">
         <v>-848</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.39215686274509798</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F33C2-0B16-4ADD-AFAD-03221331485A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A691864-8A4F-441D-9ACD-6BEDD67BA4D0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1114,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05F31D-EC3C-455A-9B6B-FB259DB9A2D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E14D71-98DC-48CA-9156-9F64D180559D}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1138,13 +1229,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1160,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -1172,39 +1263,39 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H2" s="2">
         <v>-100</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="2">
         <v>8</v>
@@ -1215,28 +1306,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>21</v>
@@ -1247,28 +1338,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>22</v>
@@ -1279,28 +1370,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>46</v>
+      <c r="H5" s="2">
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>30</v>
@@ -1311,28 +1402,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>65535</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>49</v>
+      <c r="H6" s="2">
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>40</v>
